--- a/verfy_excel_配置化/output.xlsx
+++ b/verfy_excel_配置化/output.xlsx
@@ -505,13 +505,13 @@
           <t>项目A</t>
         </is>
       </c>
-      <c r="C5" s="5" t="n">
+      <c r="D5" s="5" t="n">
         <v>0.2</v>
       </c>
-      <c r="E5" s="5" t="n">
+      <c r="F5" s="5" t="n">
         <v>5000</v>
       </c>
-      <c r="G5" s="5" t="n">
+      <c r="H5" s="5" t="n">
         <v>100</v>
       </c>
     </row>
@@ -521,13 +521,13 @@
           <t>项目C</t>
         </is>
       </c>
-      <c r="C6" s="5" t="n">
+      <c r="D6" s="5" t="n">
         <v>0.3</v>
       </c>
-      <c r="E6" s="5" t="n">
+      <c r="F6" s="5" t="n">
         <v>7500</v>
       </c>
-      <c r="G6" s="5" t="n">
+      <c r="H6" s="5" t="n">
         <v>150</v>
       </c>
     </row>
@@ -547,13 +547,13 @@
           <t>项目B</t>
         </is>
       </c>
-      <c r="C9" s="5" t="n">
+      <c r="D9" s="5" t="n">
         <v>0.4</v>
       </c>
-      <c r="E9" s="5" t="n">
+      <c r="F9" s="5" t="n">
         <v>10000</v>
       </c>
-      <c r="G9" s="5" t="n">
+      <c r="H9" s="5" t="n">
         <v>200</v>
       </c>
     </row>
@@ -563,13 +563,13 @@
           <t>项目D</t>
         </is>
       </c>
-      <c r="C10" s="5" t="n">
+      <c r="D10" s="5" t="n">
         <v>0.1</v>
       </c>
-      <c r="E10" s="5" t="n">
+      <c r="F10" s="5" t="n">
         <v>2500</v>
       </c>
-      <c r="G10" s="5" t="n">
+      <c r="H10" s="5" t="n">
         <v>50</v>
       </c>
     </row>
